--- a/w_h_r1.xlsx
+++ b/w_h_r1.xlsx
@@ -8,21 +8,37 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjkss\Desktop\9. semester\Empirisk-SFC-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C86B44D-91A9-41F0-9979-79E43C5ADC66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE482B3-9BC5-4DE0-A97D-16C70FE867BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NKSO2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>w_h_r1</t>
+  </si>
+  <si>
+    <t>emp1</t>
   </si>
 </sst>
 </file>
@@ -59,10 +75,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A66"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -378,334 +394,564 @@
     <col min="3" max="67" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>178712</v>
+      </c>
+      <c r="B2">
+        <v>2708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>189969</v>
+      </c>
+      <c r="B3">
+        <v>2787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>182996</v>
+      </c>
+      <c r="B4">
+        <v>2771</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>187703</v>
+      </c>
+      <c r="B5">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>183767</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="B6">
+        <v>2678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>192871</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="B7">
+        <v>2776</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>189703</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+      <c r="B8">
+        <v>2751</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>194498</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B9">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>192354</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B10">
+        <v>2707</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>203318</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B11">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>196168</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="B12">
+        <v>2722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>204008</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="B13">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>202841</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="B14">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>216274</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="B15">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>205697</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="B16">
+        <v>2795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>218036</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="B17">
+        <v>2786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>215407</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="B18">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>228212</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="B19">
+        <v>2773</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>218320</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="B20">
+        <v>2767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>228647</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="B21">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>226761</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="B22">
+        <v>2765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>238449</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="B23">
+        <v>2817</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>229984</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="B24">
+        <v>2838</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>239509</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="B25">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>233335</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="B26">
+        <v>2749</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>240065</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="B27">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>229186</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="B28">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>230398</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="B29">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>232365</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="B30">
+        <v>2643</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>241427</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="B31">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
         <v>230502</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="B32">
+        <v>2669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
         <v>238647</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="B33">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
         <v>235547</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="B34">
+        <v>2625</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
         <v>245318</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+      <c r="B35">
+        <v>2652</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
         <v>233304</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+      <c r="B36">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
         <v>241586</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="B37">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
         <v>238756</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="B38">
+        <v>2616</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
         <v>246784</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+      <c r="B39">
+        <v>2629</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
         <v>236307</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+      <c r="B40">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>245264</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+      <c r="B41">
+        <v>2619</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
         <v>242213</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+      <c r="B42">
+        <v>2605</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
         <v>252619</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+      <c r="B43">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
         <v>240415</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="B44">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
         <v>249078</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+      <c r="B45">
+        <v>2614</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>248483</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="B46">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
         <v>258900</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+      <c r="B47">
+        <v>2637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
         <v>245616</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+      <c r="B48">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
         <v>255262</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+      <c r="B49">
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
         <v>254877</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+      <c r="B50">
+        <v>2653</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
         <v>267172</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+      <c r="B51">
+        <v>2675</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
         <v>253799</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="B52">
+        <v>2689</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
         <v>262960</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+      <c r="B53">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
         <v>262694</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="B54">
+        <v>2725</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
         <v>276761</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+      <c r="B55">
+        <v>2762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
         <v>260844</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+      <c r="B56">
+        <v>2761</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
         <v>271690</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+      <c r="B57">
+        <v>2746</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
         <v>270479</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+      <c r="B58">
+        <v>2696</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
         <v>284504</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+      <c r="B59">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
         <v>268868</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+      <c r="B60">
+        <v>2759</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
         <v>282606</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+      <c r="B61">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
         <v>279382</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="B62">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
         <v>294741</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="B63">
+        <v>2792</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
         <v>277537</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="B64">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
         <v>290149</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="B65">
+        <v>2802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
         <v>289852</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+      <c r="B66">
+        <v>2791</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
         <v>303580</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="B67">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
         <v>287187</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+      <c r="B68">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
         <v>301452</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+      <c r="B69">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
         <v>298056</v>
+      </c>
+      <c r="B70">
+        <v>2775</v>
       </c>
     </row>
   </sheetData>

--- a/w_h_r1.xlsx
+++ b/w_h_r1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjkss\Desktop\9. semester\Empirisk-SFC-model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AE482B3-9BC5-4DE0-A97D-16C70FE867BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E649D7D-9AEF-402F-840F-CED6D900CA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -73,12 +73,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -394,7 +395,7 @@
     <col min="3" max="67" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>178712</v>
       </c>
@@ -410,496 +411,556 @@
         <v>2708</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>189969</v>
       </c>
       <c r="B3">
         <v>2787</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>182996</v>
       </c>
       <c r="B4">
         <v>2771</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>187703</v>
       </c>
       <c r="B5">
         <v>2750</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>183767</v>
       </c>
       <c r="B6">
         <v>2678</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>192871</v>
       </c>
       <c r="B7">
         <v>2776</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>189703</v>
       </c>
       <c r="B8">
         <v>2751</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>194498</v>
       </c>
       <c r="B9">
         <v>2748</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>192354</v>
       </c>
       <c r="B10">
         <v>2707</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>203318</v>
       </c>
       <c r="B11">
         <v>2699</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="E11" s="3"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>196168</v>
       </c>
       <c r="B12">
         <v>2722</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>204008</v>
       </c>
       <c r="B13">
         <v>2746</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>202841</v>
       </c>
       <c r="B14">
         <v>2729</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>216274</v>
       </c>
       <c r="B15">
         <v>2749</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>205697</v>
       </c>
       <c r="B16">
         <v>2795</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>218036</v>
       </c>
       <c r="B17">
         <v>2786</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>215407</v>
       </c>
       <c r="B18">
         <v>2759</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>228212</v>
       </c>
       <c r="B19">
         <v>2773</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>218320</v>
       </c>
       <c r="B20">
         <v>2767</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>228647</v>
       </c>
       <c r="B21">
         <v>2745</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>226761</v>
       </c>
       <c r="B22">
         <v>2765</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>238449</v>
       </c>
       <c r="B23">
         <v>2817</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>229984</v>
       </c>
       <c r="B24">
         <v>2838</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>239509</v>
       </c>
       <c r="B25">
         <v>2820</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>233335</v>
       </c>
       <c r="B26">
         <v>2749</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>240065</v>
       </c>
       <c r="B27">
         <v>2739</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>229186</v>
       </c>
       <c r="B28">
         <v>2744</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>230398</v>
       </c>
       <c r="B29">
         <v>2675</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>232365</v>
       </c>
       <c r="B30">
         <v>2643</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>241427</v>
       </c>
       <c r="B31">
         <v>2664</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <v>230502</v>
       </c>
       <c r="B32">
         <v>2669</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <v>238647</v>
       </c>
       <c r="B33">
         <v>2647</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <v>235547</v>
       </c>
       <c r="B34">
         <v>2625</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="E34" s="3"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>245318</v>
       </c>
       <c r="B35">
         <v>2652</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <v>233304</v>
       </c>
       <c r="B36">
         <v>2664</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="E36" s="3"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <v>241586</v>
       </c>
       <c r="B37">
         <v>2639</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="E37" s="3"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <v>238756</v>
       </c>
       <c r="B38">
         <v>2616</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <v>246784</v>
       </c>
       <c r="B39">
         <v>2629</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <v>236307</v>
       </c>
       <c r="B40">
         <v>2628</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <v>245264</v>
       </c>
       <c r="B41">
         <v>2619</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="E41" s="3"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <v>242213</v>
       </c>
       <c r="B42">
         <v>2605</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <v>252619</v>
       </c>
       <c r="B43">
         <v>2638</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <v>240415</v>
       </c>
       <c r="B44">
         <v>2637</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <v>249078</v>
       </c>
       <c r="B45">
         <v>2614</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <v>248483</v>
       </c>
       <c r="B46">
         <v>2581</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="E46" s="3"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <v>258900</v>
       </c>
       <c r="B47">
         <v>2637</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="E47" s="3"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <v>245616</v>
       </c>
       <c r="B48">
         <v>2675</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <v>255262</v>
       </c>
       <c r="B49">
         <v>2673</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="E49" s="3"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <v>254877</v>
       </c>
       <c r="B50">
         <v>2653</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <v>267172</v>
       </c>
       <c r="B51">
         <v>2675</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <v>253799</v>
       </c>
       <c r="B52">
         <v>2689</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <v>262960</v>
       </c>
       <c r="B53">
         <v>2704</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <v>262694</v>
       </c>
       <c r="B54">
         <v>2725</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <v>276761</v>
       </c>
       <c r="B55">
         <v>2762</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <v>260844</v>
       </c>
       <c r="B56">
         <v>2761</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
+      <c r="E56" s="3"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <v>271690</v>
       </c>
       <c r="B57">
         <v>2746</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <v>270479</v>
       </c>
       <c r="B58">
         <v>2696</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
+      <c r="E58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <v>284504</v>
       </c>
       <c r="B59">
         <v>2730</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <v>268868</v>
       </c>
       <c r="B60">
         <v>2759</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
+      <c r="E60" s="3"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <v>282606</v>
       </c>
       <c r="B61">
         <v>2756</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <v>279382</v>
       </c>
       <c r="B62">
         <v>2750</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <v>294741</v>
       </c>
       <c r="B63">
         <v>2792</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <v>277537</v>
       </c>
       <c r="B64">
@@ -907,7 +968,7 @@
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
+      <c r="A65" s="3">
         <v>290149</v>
       </c>
       <c r="B65">
@@ -915,40 +976,40 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>289852</v>
+      <c r="A66" s="3">
+        <v>289878</v>
       </c>
       <c r="B66">
         <v>2791</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>303580</v>
+      <c r="A67" s="3">
+        <v>303179</v>
       </c>
       <c r="B67">
         <v>2784</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>287187</v>
+      <c r="A68" s="3">
+        <v>287437</v>
       </c>
       <c r="B68">
         <v>2780</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>301452</v>
+      <c r="A69" s="3">
+        <v>301086</v>
       </c>
       <c r="B69">
         <v>2796</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>298056</v>
+      <c r="A70" s="3">
+        <v>297575</v>
       </c>
       <c r="B70">
         <v>2775</v>
